--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1073652.159286533</v>
+        <v>1070951.054511579</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673425</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -671,52 +671,52 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>81.2147724177193</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>77.08171901666381</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>187.5255871663198</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>158.7758131900531</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>187.5255871663198</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>173.9484321805917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,25 +738,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.9045589040915</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,22 +786,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="V3" t="n">
-        <v>80.19641286545264</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402855</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,19 +856,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709389</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>20.00402729331188</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>52.21594625443431</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -899,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.8707348436268</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>199.3492211929891</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>36.87035732257706</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -984,16 +984,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>34.47809986852373</v>
       </c>
       <c r="G6" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,10 +1023,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
-        <v>155.8359352231865</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8205739680685</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>115.539654257146</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>18.15430933923925</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.59469128425553</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>250.7831302631783</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.83349180859359</v>
+        <v>83.85097430679274</v>
       </c>
       <c r="H8" t="n">
-        <v>30.55608127386649</v>
+        <v>303.9453895236493</v>
       </c>
       <c r="I8" t="n">
-        <v>76.72779446896601</v>
+        <v>76.7277944689659</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.9646330484317</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>207.9092264837461</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0681132513132</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,13 +1209,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1224,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>123.7541816074657</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.30836251344154</v>
+        <v>94.30836251344152</v>
       </c>
       <c r="I9" t="n">
-        <v>35.61339202271519</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.43165252365262</v>
+        <v>30.4316525236525</v>
       </c>
       <c r="S9" t="n">
         <v>137.2048826855192</v>
@@ -1275,7 +1275,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>51.16230961915556</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>135.8295349335711</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4347951675532</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>16.97319914237106</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.19579633461521</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.2964387944122</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>264.5579348066308</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,22 +1370,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>135.1820289737286</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>270.1915102239688</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>97.975526991141</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
         <v>250.9558092037176</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>87.14370622128588</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034038</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146338</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
         <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1997994941144</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>196.2511428064776</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>359.551749875468</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1661,7 +1661,7 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
-        <v>200.6173698503559</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1771,13 +1771,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>81.3725990111934</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>38.03682829123446</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
@@ -1844,13 +1844,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722626</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>41.74133133758772</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174139</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2239,16 +2239,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>96.02642072444161</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428134</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>4.019807611472528</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408064</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187857</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833926</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>213.8732106000946</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2956,16 +2956,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833858</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,16 +3001,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>258.3665043780532</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3193,16 +3193,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>18.70843787977335</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>137.979202434662</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187869</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3427,13 +3427,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>55.52079624060362</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3667,16 +3667,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833835</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>253.2918698186446</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3898,19 +3898,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>27.24739666248539</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.9742741983374</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3986,7 +3986,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740349</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179773</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>224.5974673148099</v>
+        <v>103.982671376771</v>
       </c>
       <c r="C2" t="n">
-        <v>224.5974673148099</v>
+        <v>103.982671376771</v>
       </c>
       <c r="D2" t="n">
-        <v>224.5974673148099</v>
+        <v>103.982671376771</v>
       </c>
       <c r="E2" t="n">
-        <v>224.5974673148099</v>
+        <v>103.982671376771</v>
       </c>
       <c r="F2" t="n">
-        <v>217.6519665656065</v>
+        <v>97.03717062756751</v>
       </c>
       <c r="G2" t="n">
-        <v>204.4218319897903</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
         <v>15.00204697330559</v>
@@ -4328,22 +4328,22 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.033711606785</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L2" t="n">
         <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P2" t="n">
         <v>734.4611726020262</v>
@@ -4352,28 +4352,28 @@
         <v>750.1023486652792</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652792</v>
+        <v>672.2420264262249</v>
       </c>
       <c r="S2" t="n">
-        <v>589.7227393823973</v>
+        <v>672.2420264262249</v>
       </c>
       <c r="T2" t="n">
-        <v>589.7227393823973</v>
+        <v>482.8222414097403</v>
       </c>
       <c r="U2" t="n">
-        <v>400.3029543659127</v>
+        <v>293.4024563932556</v>
       </c>
       <c r="V2" t="n">
-        <v>400.3029543659127</v>
+        <v>103.982671376771</v>
       </c>
       <c r="W2" t="n">
-        <v>400.3029543659127</v>
+        <v>103.982671376771</v>
       </c>
       <c r="X2" t="n">
-        <v>400.3029543659127</v>
+        <v>103.982671376771</v>
       </c>
       <c r="Y2" t="n">
-        <v>224.5974673148099</v>
+        <v>103.982671376771</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>517.8127955780042</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="C3" t="n">
-        <v>517.8127955780042</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D3" t="n">
-        <v>517.8127955780042</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>358.5753405725487</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>212.0407825994337</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
         <v>15.00204697330559</v>
@@ -4419,7 +4419,7 @@
         <v>338.7690911140241</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546598</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O3" t="n">
         <v>649.2101578476345</v>
@@ -4434,25 +4434,25 @@
         <v>750.1023486652792</v>
       </c>
       <c r="S3" t="n">
-        <v>598.8192732198755</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="T3" t="n">
-        <v>598.8192732198755</v>
+        <v>560.6825636487946</v>
       </c>
       <c r="U3" t="n">
-        <v>598.8192732198755</v>
+        <v>371.26277863231</v>
       </c>
       <c r="V3" t="n">
-        <v>517.8127955780042</v>
+        <v>371.26277863231</v>
       </c>
       <c r="W3" t="n">
-        <v>517.8127955780042</v>
+        <v>371.26277863231</v>
       </c>
       <c r="X3" t="n">
-        <v>517.8127955780042</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="Y3" t="n">
-        <v>517.8127955780042</v>
+        <v>181.8429936158253</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29.24882464404149</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C4" t="n">
-        <v>29.24882464404149</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
-        <v>29.24882464404149</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>29.24882464404149</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>29.24882464404149</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>29.24882464404149</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>29.24882464404149</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>29.24882464404149</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>29.24882464404149</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
         <v>15.00204697330559</v>
@@ -4504,34 +4504,34 @@
         <v>67.74542702828974</v>
       </c>
       <c r="P4" t="n">
-        <v>49.454912819104</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.454912819104</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="R4" t="n">
-        <v>29.24882464404149</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="S4" t="n">
-        <v>29.24882464404149</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="T4" t="n">
-        <v>29.24882464404149</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="U4" t="n">
-        <v>29.24882464404149</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V4" t="n">
-        <v>29.24882464404149</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W4" t="n">
-        <v>29.24882464404149</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X4" t="n">
-        <v>29.24882464404149</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y4" t="n">
-        <v>29.24882464404149</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1256.174399222538</v>
+        <v>1113.760102633513</v>
       </c>
       <c r="C5" t="n">
-        <v>1256.174399222538</v>
+        <v>1113.760102633513</v>
       </c>
       <c r="D5" t="n">
-        <v>1256.174399222538</v>
+        <v>755.4944040267628</v>
       </c>
       <c r="E5" t="n">
-        <v>870.3861466242934</v>
+        <v>369.7061514285186</v>
       </c>
       <c r="F5" t="n">
-        <v>459.4002418346858</v>
+        <v>362.7606506793151</v>
       </c>
       <c r="G5" t="n">
-        <v>43.36919653809306</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="H5" t="n">
         <v>43.36919653809306</v>
@@ -4571,7 +4571,7 @@
         <v>366.8168396232717</v>
       </c>
       <c r="L5" t="n">
-        <v>669.5878927711869</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M5" t="n">
         <v>1038.14846457873</v>
@@ -4598,19 +4598,19 @@
         <v>2036.325171642784</v>
       </c>
       <c r="U5" t="n">
-        <v>2036.325171642784</v>
+        <v>1834.962321952896</v>
       </c>
       <c r="V5" t="n">
-        <v>2036.325171642784</v>
+        <v>1503.899434609325</v>
       </c>
       <c r="W5" t="n">
-        <v>1683.55651637267</v>
+        <v>1503.899434609325</v>
       </c>
       <c r="X5" t="n">
-        <v>1646.313731198349</v>
+        <v>1503.899434609325</v>
       </c>
       <c r="Y5" t="n">
-        <v>1256.174399222538</v>
+        <v>1113.760102633513</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>475.7141579573434</v>
+        <v>533.7044947829236</v>
       </c>
       <c r="C6" t="n">
-        <v>475.7141579573434</v>
+        <v>359.2514655017966</v>
       </c>
       <c r="D6" t="n">
-        <v>326.7797482960922</v>
+        <v>210.3170558405453</v>
       </c>
       <c r="E6" t="n">
-        <v>326.7797482960922</v>
+        <v>210.3170558405453</v>
       </c>
       <c r="F6" t="n">
-        <v>180.2451903229772</v>
+        <v>175.490692336986</v>
       </c>
       <c r="G6" t="n">
-        <v>43.36919653809306</v>
+        <v>175.490692336986</v>
       </c>
       <c r="H6" t="n">
-        <v>43.36919653809306</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="I6" t="n">
         <v>43.36919653809306</v>
@@ -4671,25 +4671,25 @@
         <v>1766.227047333487</v>
       </c>
       <c r="S6" t="n">
-        <v>1766.227047333487</v>
+        <v>1627.262386835205</v>
       </c>
       <c r="T6" t="n">
-        <v>1608.81701175451</v>
+        <v>1627.262386835205</v>
       </c>
       <c r="U6" t="n">
-        <v>1380.715421887774</v>
+        <v>1399.160796968469</v>
       </c>
       <c r="V6" t="n">
-        <v>1145.563313656032</v>
+        <v>1164.008688736726</v>
       </c>
       <c r="W6" t="n">
-        <v>891.3259569278302</v>
+        <v>909.7713320085245</v>
       </c>
       <c r="X6" t="n">
-        <v>683.4744567222974</v>
+        <v>701.9198318029917</v>
       </c>
       <c r="Y6" t="n">
-        <v>475.7141579573434</v>
+        <v>701.9198318029917</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>497.4664265514521</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C7" t="n">
-        <v>328.5302436235452</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D7" t="n">
-        <v>178.4136042112094</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E7" t="n">
-        <v>178.4136042112094</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F7" t="n">
-        <v>178.4136042112094</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G7" t="n">
-        <v>178.4136042112094</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H7" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I7" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J7" t="n">
         <v>43.36919653809306</v>
@@ -4744,31 +4744,31 @@
         <v>520.2893470405991</v>
       </c>
       <c r="Q7" t="n">
-        <v>497.4664265514521</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R7" t="n">
-        <v>497.4664265514521</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S7" t="n">
-        <v>497.4664265514521</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T7" t="n">
-        <v>497.4664265514521</v>
+        <v>296.6854897332227</v>
       </c>
       <c r="U7" t="n">
-        <v>497.4664265514521</v>
+        <v>296.6854897332227</v>
       </c>
       <c r="V7" t="n">
-        <v>497.4664265514521</v>
+        <v>296.6854897332227</v>
       </c>
       <c r="W7" t="n">
-        <v>497.4664265514521</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X7" t="n">
-        <v>497.4664265514521</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y7" t="n">
-        <v>497.4664265514521</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>171.5434942066056</v>
+        <v>1264.493193641885</v>
       </c>
       <c r="C8" t="n">
-        <v>171.5434942066056</v>
+        <v>1264.493193641885</v>
       </c>
       <c r="D8" t="n">
-        <v>171.5434942066056</v>
+        <v>906.2274950351348</v>
       </c>
       <c r="E8" t="n">
-        <v>171.5434942066056</v>
+        <v>520.4392424368905</v>
       </c>
       <c r="F8" t="n">
-        <v>164.5979934574021</v>
+        <v>513.493741687687</v>
       </c>
       <c r="G8" t="n">
-        <v>152.6449714285197</v>
+        <v>428.7957878424418</v>
       </c>
       <c r="H8" t="n">
         <v>121.7802428690586</v>
       </c>
       <c r="I8" t="n">
-        <v>44.27742017313336</v>
+        <v>44.27742017313345</v>
       </c>
       <c r="J8" t="n">
-        <v>156.545388549432</v>
+        <v>156.5453885494326</v>
       </c>
       <c r="K8" t="n">
-        <v>375.5444889229406</v>
+        <v>375.5444889229411</v>
       </c>
       <c r="L8" t="n">
-        <v>684.1340000193447</v>
+        <v>684.1340000193466</v>
       </c>
       <c r="M8" t="n">
-        <v>1059.168727391406</v>
+        <v>1059.168727391409</v>
       </c>
       <c r="N8" t="n">
-        <v>1444.885717117917</v>
+        <v>1444.88571711792</v>
       </c>
       <c r="O8" t="n">
-        <v>1795.772071623106</v>
+        <v>1795.772071623109</v>
       </c>
       <c r="P8" t="n">
-        <v>2060.744456291607</v>
+        <v>2060.74445629161</v>
       </c>
       <c r="Q8" t="n">
-        <v>2211.554935535259</v>
+        <v>2211.554935535263</v>
       </c>
       <c r="R8" t="n">
-        <v>2213.871008656668</v>
+        <v>2213.871008656673</v>
       </c>
       <c r="S8" t="n">
-        <v>2082.59360153704</v>
+        <v>2213.871008656673</v>
       </c>
       <c r="T8" t="n">
-        <v>1872.584281856488</v>
+        <v>2003.861688976121</v>
       </c>
       <c r="U8" t="n">
-        <v>1618.980127057182</v>
+        <v>2003.861688976121</v>
       </c>
       <c r="V8" t="n">
-        <v>1287.917239713611</v>
+        <v>2003.861688976121</v>
       </c>
       <c r="W8" t="n">
-        <v>935.1485844434972</v>
+        <v>1651.093033706007</v>
       </c>
       <c r="X8" t="n">
-        <v>561.6828261824173</v>
+        <v>1651.093033706007</v>
       </c>
       <c r="Y8" t="n">
-        <v>171.5434942066056</v>
+        <v>1651.093033706007</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>300.5157395101257</v>
+        <v>288.4728020701842</v>
       </c>
       <c r="C9" t="n">
-        <v>300.5157395101257</v>
+        <v>288.4728020701842</v>
       </c>
       <c r="D9" t="n">
-        <v>300.5157395101257</v>
+        <v>139.538392408933</v>
       </c>
       <c r="E9" t="n">
-        <v>300.5157395101257</v>
+        <v>139.538392408933</v>
       </c>
       <c r="F9" t="n">
-        <v>300.5157395101257</v>
+        <v>139.538392408933</v>
       </c>
       <c r="G9" t="n">
-        <v>175.5115156642008</v>
+        <v>139.538392408933</v>
       </c>
       <c r="H9" t="n">
-        <v>80.25054342840123</v>
+        <v>44.27742017313345</v>
       </c>
       <c r="I9" t="n">
-        <v>44.27742017313336</v>
+        <v>44.27742017313345</v>
       </c>
       <c r="J9" t="n">
-        <v>92.32560606848432</v>
+        <v>92.32560606848456</v>
       </c>
       <c r="K9" t="n">
-        <v>252.6024334910151</v>
+        <v>252.6024334910156</v>
       </c>
       <c r="L9" t="n">
-        <v>514.4369485047778</v>
+        <v>514.4369485047787</v>
       </c>
       <c r="M9" t="n">
-        <v>839.342345761886</v>
+        <v>839.3423457618874</v>
       </c>
       <c r="N9" t="n">
-        <v>1187.255667013954</v>
+        <v>1187.255667013956</v>
       </c>
       <c r="O9" t="n">
-        <v>1483.308590376468</v>
+        <v>1483.30859037647</v>
       </c>
       <c r="P9" t="n">
-        <v>1701.584095618379</v>
+        <v>1701.584095618382</v>
       </c>
       <c r="Q9" t="n">
-        <v>1797.576293952198</v>
+        <v>1797.576293952201</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.837250999013</v>
+        <v>1766.837250999016</v>
       </c>
       <c r="S9" t="n">
-        <v>1628.246460407579</v>
+        <v>1628.246460407583</v>
       </c>
       <c r="T9" t="n">
-        <v>1433.617269092746</v>
+        <v>1433.61726909275</v>
       </c>
       <c r="U9" t="n">
-        <v>1205.517003440557</v>
+        <v>1205.51700344056</v>
       </c>
       <c r="V9" t="n">
-        <v>970.364895208814</v>
+        <v>970.3648952088174</v>
       </c>
       <c r="W9" t="n">
-        <v>716.1275384806124</v>
+        <v>716.1275384806158</v>
       </c>
       <c r="X9" t="n">
-        <v>508.2760382750796</v>
+        <v>664.4484378552062</v>
       </c>
       <c r="Y9" t="n">
-        <v>300.5157395101257</v>
+        <v>456.6881390902523</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>513.629518422049</v>
+        <v>44.27742017313345</v>
       </c>
       <c r="C10" t="n">
-        <v>513.629518422049</v>
+        <v>44.27742017313345</v>
       </c>
       <c r="D10" t="n">
-        <v>513.629518422049</v>
+        <v>44.27742017313345</v>
       </c>
       <c r="E10" t="n">
-        <v>376.4279679840985</v>
+        <v>44.27742017313345</v>
       </c>
       <c r="F10" t="n">
-        <v>229.5380204861881</v>
+        <v>44.27742017313345</v>
       </c>
       <c r="G10" t="n">
-        <v>61.42206577148796</v>
+        <v>44.27742017313345</v>
       </c>
       <c r="H10" t="n">
-        <v>61.42206577148796</v>
+        <v>44.27742017313345</v>
       </c>
       <c r="I10" t="n">
-        <v>61.42206577148796</v>
+        <v>44.27742017313345</v>
       </c>
       <c r="J10" t="n">
-        <v>44.27742017313336</v>
+        <v>44.27742017313345</v>
       </c>
       <c r="K10" t="n">
-        <v>95.546600222264</v>
+        <v>95.54660022226426</v>
       </c>
       <c r="L10" t="n">
-        <v>191.059297026468</v>
+        <v>191.0592970264684</v>
       </c>
       <c r="M10" t="n">
-        <v>295.0223269524044</v>
+        <v>295.0223269524051</v>
       </c>
       <c r="N10" t="n">
-        <v>404.3708743014475</v>
+        <v>404.3708743014485</v>
       </c>
       <c r="O10" t="n">
-        <v>485.058867435924</v>
+        <v>485.0588674359251</v>
       </c>
       <c r="P10" t="n">
-        <v>535.0394137095392</v>
+        <v>535.0394137095406</v>
       </c>
       <c r="Q10" t="n">
-        <v>513.629518422049</v>
+        <v>535.0394137095406</v>
       </c>
       <c r="R10" t="n">
-        <v>513.629518422049</v>
+        <v>535.0394137095406</v>
       </c>
       <c r="S10" t="n">
-        <v>513.629518422049</v>
+        <v>535.0394137095406</v>
       </c>
       <c r="T10" t="n">
-        <v>513.629518422049</v>
+        <v>311.5076573515485</v>
       </c>
       <c r="U10" t="n">
-        <v>513.629518422049</v>
+        <v>311.5076573515485</v>
       </c>
       <c r="V10" t="n">
-        <v>513.629518422049</v>
+        <v>311.5076573515485</v>
       </c>
       <c r="W10" t="n">
-        <v>513.629518422049</v>
+        <v>44.27742017313345</v>
       </c>
       <c r="X10" t="n">
-        <v>513.629518422049</v>
+        <v>44.27742017313345</v>
       </c>
       <c r="Y10" t="n">
-        <v>513.629518422049</v>
+        <v>44.27742017313345</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1739.060943173573</v>
+        <v>1535.258832689351</v>
       </c>
       <c r="C11" t="n">
-        <v>1370.098426233161</v>
+        <v>1535.258832689351</v>
       </c>
       <c r="D11" t="n">
-        <v>1011.832727626411</v>
+        <v>1176.993134082601</v>
       </c>
       <c r="E11" t="n">
-        <v>626.0444750281667</v>
+        <v>1176.993134082601</v>
       </c>
       <c r="F11" t="n">
-        <v>215.0585702385591</v>
+        <v>766.0072292929935</v>
       </c>
       <c r="G11" t="n">
-        <v>78.51106622469186</v>
+        <v>351.4317836226404</v>
       </c>
       <c r="H11" t="n">
-        <v>78.51106622469186</v>
+        <v>78.51106622469183</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469186</v>
+        <v>78.51106622469183</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386834</v>
+        <v>308.7333971386832</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420337</v>
+        <v>704.5155104420321</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301227</v>
+        <v>1232.419981301225</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878112</v>
+        <v>1851.484858878109</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765427</v>
+        <v>2485.180661765425</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687104</v>
+        <v>3070.226377687101</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856286</v>
+        <v>3535.048359856283</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882243</v>
+        <v>3835.937563882241</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234593</v>
+        <v>3925.553311234592</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455663</v>
+        <v>3826.588132455661</v>
       </c>
       <c r="T11" t="n">
-        <v>3826.588132455663</v>
+        <v>3622.786021971441</v>
       </c>
       <c r="U11" t="n">
-        <v>3573.097416088271</v>
+        <v>3369.29530560405</v>
       </c>
       <c r="V11" t="n">
-        <v>3242.0345287447</v>
+        <v>3038.232418260479</v>
       </c>
       <c r="W11" t="n">
-        <v>2889.265873474586</v>
+        <v>2685.463762990365</v>
       </c>
       <c r="X11" t="n">
-        <v>2515.800115213507</v>
+        <v>2311.998004729285</v>
       </c>
       <c r="Y11" t="n">
-        <v>2125.660783237695</v>
+        <v>1921.858672753473</v>
       </c>
     </row>
     <row r="12">
@@ -5103,19 +5103,19 @@
         <v>618.1656010111994</v>
       </c>
       <c r="E12" t="n">
-        <v>458.928146005744</v>
+        <v>458.9281460057439</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3935880326289</v>
+        <v>312.3935880326288</v>
       </c>
       <c r="G12" t="n">
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503046</v>
+        <v>88.36274985503043</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469186</v>
+        <v>78.51106622469183</v>
       </c>
       <c r="J12" t="n">
         <v>196.8120623792129</v>
@@ -5127,19 +5127,19 @@
         <v>900.4499396649601</v>
       </c>
       <c r="M12" t="n">
-        <v>1413.763713908849</v>
+        <v>977.3905023848064</v>
       </c>
       <c r="N12" t="n">
-        <v>1534.739190279345</v>
+        <v>1518.698809735873</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.710743145095</v>
+        <v>1991.670362601622</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.979045985249</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1015.247221192403</v>
+        <v>226.4241598070849</v>
       </c>
       <c r="C13" t="n">
-        <v>846.3110382644966</v>
+        <v>226.4241598070849</v>
       </c>
       <c r="D13" t="n">
-        <v>696.1943988521609</v>
+        <v>226.4241598070849</v>
       </c>
       <c r="E13" t="n">
-        <v>548.2813052697679</v>
+        <v>78.51106622469183</v>
       </c>
       <c r="F13" t="n">
-        <v>401.3913577718577</v>
+        <v>78.51106622469183</v>
       </c>
       <c r="G13" t="n">
-        <v>313.367412093791</v>
+        <v>78.51106622469183</v>
       </c>
       <c r="H13" t="n">
-        <v>169.132356598773</v>
+        <v>78.51106622469183</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469186</v>
+        <v>78.51106622469183</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600399</v>
+        <v>139.0818334600401</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457705</v>
+        <v>368.45504734577</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888917</v>
+        <v>717.5002252888912</v>
       </c>
       <c r="M13" t="n">
         <v>1095.908548779221</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542994</v>
+        <v>1470.753784542993</v>
       </c>
       <c r="O13" t="n">
         <v>1800.967734715849</v>
@@ -5218,31 +5218,31 @@
         <v>2060.002133082521</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551106</v>
+        <v>2155.909043551105</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551106</v>
+        <v>2076.102739014274</v>
       </c>
       <c r="S13" t="n">
-        <v>2155.909043551106</v>
+        <v>1888.302075370156</v>
       </c>
       <c r="T13" t="n">
-        <v>1935.094986101151</v>
+        <v>1667.488017920202</v>
       </c>
       <c r="U13" t="n">
-        <v>1935.094986101151</v>
+        <v>1378.39731136049</v>
       </c>
       <c r="V13" t="n">
-        <v>1935.094986101151</v>
+        <v>1123.712823154603</v>
       </c>
       <c r="W13" t="n">
-        <v>1645.677816064191</v>
+        <v>834.2956531176426</v>
       </c>
       <c r="X13" t="n">
-        <v>1417.688265166173</v>
+        <v>606.3061022196252</v>
       </c>
       <c r="Y13" t="n">
-        <v>1196.895686022643</v>
+        <v>408.0726246373247</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614635</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007884</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1153.40847940964</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200325</v>
       </c>
       <c r="G14" t="n">
         <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251936</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128755</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L14" t="n">
         <v>1461.457663018651</v>
@@ -5297,31 +5297,31 @@
         <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070876</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750194</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5343,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608053</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="J15" t="n">
-        <v>240.4596049779265</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K15" t="n">
-        <v>570.9683475412853</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L15" t="n">
-        <v>1061.700680385037</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M15" t="n">
-        <v>1511.096147944828</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="N15" t="n">
-        <v>2133.192111344164</v>
+        <v>1320.428158124812</v>
       </c>
       <c r="O15" t="n">
-        <v>2133.192111344164</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>706.6674866466262</v>
+        <v>494.0589900220737</v>
       </c>
       <c r="C16" t="n">
-        <v>537.7313037187193</v>
+        <v>325.1228070941668</v>
       </c>
       <c r="D16" t="n">
-        <v>387.6146643063837</v>
+        <v>175.0061676818311</v>
       </c>
       <c r="E16" t="n">
-        <v>239.7015707239907</v>
+        <v>175.0061676818311</v>
       </c>
       <c r="F16" t="n">
-        <v>92.81162322608053</v>
+        <v>175.0061676818311</v>
       </c>
       <c r="G16" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861981</v>
+        <v>431.4224730861982</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693324</v>
+        <v>819.1842911693325</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
@@ -5458,28 +5458,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2389.954735732152</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2389.954735732152</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T16" t="n">
-        <v>2170.275953446534</v>
+        <v>1957.667456821982</v>
       </c>
       <c r="U16" t="n">
-        <v>1881.199739761261</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1626.515251555374</v>
+        <v>1413.906754930822</v>
       </c>
       <c r="W16" t="n">
-        <v>1337.098081518413</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X16" t="n">
-        <v>1109.108530620396</v>
+        <v>896.5000339958435</v>
       </c>
       <c r="Y16" t="n">
-        <v>888.315951476866</v>
+        <v>675.7074548523134</v>
       </c>
     </row>
     <row r="17">
@@ -5492,10 +5492,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5507,55 +5507,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876695</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406112</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282754</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458823</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797189</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179088</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="20">
@@ -5741,22 +5741,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
         <v>2206.55866301478</v>
@@ -5765,28 +5765,28 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852888</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>119.2902967703784</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>119.2902967703784</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>119.2902967703784</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969303</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2527.587654338368</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>802.9288273958744</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257313</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133955</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267662</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.5772922261141</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961526</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M24" t="n">
         <v>1337.934786622704</v>
       </c>
       <c r="N24" t="n">
-        <v>1965.532750177311</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2517.442480416598</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876694</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597624</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597624</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>411.9631215597624</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>265.0731740618521</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>97.877074776732</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6148,7 +6148,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
         <v>826.1405381797745</v>
@@ -6166,31 +6166,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614392</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179091</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="26">
@@ -6200,49 +6200,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192412</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111707</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,10 +6297,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6312,19 +6312,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>806.8386896933887</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C28" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1981.028999426865</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1691.953772771063</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1437.269284565176</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1437.269284565176</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.279733667159</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y28" t="n">
-        <v>988.4871545236284</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711973</v>
+        <v>194.800778399829</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831766</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.987318831766</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.228921741679</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6701,25 +6701,25 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263526</v>
+        <v>513.853600740072</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121651</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998293</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998293</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138419</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703117</v>
       </c>
     </row>
     <row r="35">
@@ -6926,19 +6926,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,7 +6947,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.6725264685181</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406112</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282754</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7111,34 +7111,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987578</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7175,25 +7175,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7254,25 +7254,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C40" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711973</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7333,10 +7333,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7351,31 +7351,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,31 +7406,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1368.154262550759</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>733.4550657171303</v>
+        <v>513.8536007400704</v>
       </c>
       <c r="C43" t="n">
-        <v>705.932442825731</v>
+        <v>344.9174178121635</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133952</v>
+        <v>194.8007783998278</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310021</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W43" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y43" t="n">
-        <v>915.10353054737</v>
+        <v>695.5020655703102</v>
       </c>
     </row>
     <row r="44">
@@ -7628,10 +7628,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
         <v>793.7736536168611</v>
@@ -7643,22 +7643,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7722,19 +7722,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7807,7 +7807,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
         <v>826.1405381797742</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
   </sheetData>
@@ -23258,22 +23258,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>275.2476622399208</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806773</v>
+        <v>19.37720645670843</v>
       </c>
       <c r="I11" t="n">
         <v>22.60777203238024</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.7640893793779</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>78.66139232693679</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89.71507747034038</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146338</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076762</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1997994941144</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>22.33351054561723</v>
       </c>
     </row>
     <row r="14">
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.29152613728957</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>50.2915261372904</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23659,13 +23659,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>84.16945386597352</v>
       </c>
       <c r="H16" t="n">
         <v>140.4539897919539</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>29.14392329984909</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>125.5054897610401</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>40.3204386478856</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671011886</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24127,16 +24127,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>71.22040037418623</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>65.54986409393102</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892403</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>136.2749052347513</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>46.45968844823076</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409392959</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>3.532239727193684</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24844,16 +24844,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>46.4596884482306</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24889,16 +24889,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>28.15649395853779</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25081,16 +25081,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>126.7126101431579</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,19 +25120,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>114.158440889166</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,13 +25315,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>125.505489761041</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.54986409393049</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>32.89260457059957</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,19 +25786,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>139.9994244361424</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823177</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>45.4467738245929</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>880069.5961787699</v>
+        <v>880069.5961787698</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>957177.4428699699</v>
+        <v>957177.4428699701</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>962425.9658310408</v>
+        <v>962425.9658310405</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>962425.9658310406</v>
+        <v>962425.9658310405</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>962425.9658310405</v>
+        <v>962425.9658310406</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>962425.9658310408</v>
+        <v>962425.9658310405</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>962425.9658310408</v>
+        <v>962425.9658310405</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>962425.9658310408</v>
+        <v>962425.9658310405</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>962425.9658310406</v>
+        <v>962425.9658310405</v>
       </c>
     </row>
     <row r="16">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719627</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719632</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="D2" t="n">
         <v>472099.0176719631</v>
@@ -26326,10 +26326,10 @@
         <v>461540.8686918676</v>
       </c>
       <c r="G2" t="n">
+        <v>464109.2948217536</v>
+      </c>
+      <c r="H2" t="n">
         <v>464109.2948217537</v>
-      </c>
-      <c r="H2" t="n">
-        <v>464109.2948217536</v>
       </c>
       <c r="I2" t="n">
         <v>464109.2948217536</v>
@@ -26338,19 +26338,19 @@
         <v>464109.2948217537</v>
       </c>
       <c r="K2" t="n">
+        <v>464109.2948217536</v>
+      </c>
+      <c r="L2" t="n">
+        <v>464109.2948217536</v>
+      </c>
+      <c r="M2" t="n">
         <v>464109.2948217537</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>464109.2948217536</v>
+      </c>
+      <c r="O2" t="n">
         <v>464109.2948217535</v>
-      </c>
-      <c r="M2" t="n">
-        <v>464109.2948217536</v>
-      </c>
-      <c r="N2" t="n">
-        <v>464109.2948217537</v>
-      </c>
-      <c r="O2" t="n">
-        <v>464109.2948217536</v>
       </c>
       <c r="P2" t="n">
         <v>464109.2948217535</v>
@@ -26369,16 +26369,16 @@
         <v>392510.2442861777</v>
       </c>
       <c r="D3" t="n">
-        <v>11460.51367737918</v>
+        <v>11460.51367738021</v>
       </c>
       <c r="E3" t="n">
-        <v>408312.2999680392</v>
+        <v>408312.299968038</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051378</v>
+        <v>166521.347105138</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.2362355791</v>
+        <v>11167.23623557874</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854435</v>
+        <v>49064.94472854475</v>
       </c>
       <c r="K3" t="n">
-        <v>91259.95686487776</v>
+        <v>91259.9568648776</v>
       </c>
       <c r="L3" t="n">
-        <v>2873.290350199876</v>
+        <v>2873.290350200107</v>
       </c>
       <c r="M3" t="n">
-        <v>106639.5191329073</v>
+        <v>106639.5191329069</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.406558489</v>
+        <v>43782.4065584892</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224748</v>
+        <v>3023.297977224584</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>174202.9900888977</v>
       </c>
       <c r="D4" t="n">
-        <v>171039.3658295525</v>
+        <v>171039.3658295522</v>
       </c>
       <c r="E4" t="n">
         <v>14727.57508456132</v>
@@ -26433,31 +26433,31 @@
         <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186737</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186737</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
+        <v>14826.69604186735</v>
+      </c>
+      <c r="N4" t="n">
         <v>14826.69604186736</v>
       </c>
-      <c r="N4" t="n">
-        <v>14826.6960418674</v>
-      </c>
       <c r="O4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186734</v>
       </c>
       <c r="P4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186738</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>85199.08185587224</v>
       </c>
       <c r="D5" t="n">
-        <v>86091.29148672908</v>
+        <v>86091.29148672917</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214714</v>
+        <v>86093.72216214711</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-454780.2500946261</v>
+        <v>-454780.2500946259</v>
       </c>
       <c r="C6" t="n">
-        <v>-179813.2985589845</v>
+        <v>-179813.2985589846</v>
       </c>
       <c r="D6" t="n">
-        <v>203507.8466783023</v>
+        <v>203507.8466783015</v>
       </c>
       <c r="E6" t="n">
-        <v>-85326.35562708414</v>
+        <v>-85536.31987092778</v>
       </c>
       <c r="F6" t="n">
-        <v>180057.2296522494</v>
+        <v>180011.3246566835</v>
       </c>
       <c r="G6" t="n">
-        <v>336992.8327204001</v>
+        <v>336958.0947949647</v>
       </c>
       <c r="H6" t="n">
-        <v>348160.0689559791</v>
+        <v>348125.3310305435</v>
       </c>
       <c r="I6" t="n">
-        <v>348160.0689559791</v>
+        <v>348125.3310305434</v>
       </c>
       <c r="J6" t="n">
-        <v>299095.1242274349</v>
+        <v>299060.3863019987</v>
       </c>
       <c r="K6" t="n">
-        <v>256900.1120911014</v>
+        <v>256865.3741656658</v>
       </c>
       <c r="L6" t="n">
-        <v>345286.7786057791</v>
+        <v>345252.0406803433</v>
       </c>
       <c r="M6" t="n">
-        <v>241520.5498230717</v>
+        <v>241485.8118976366</v>
       </c>
       <c r="N6" t="n">
-        <v>304377.6623974901</v>
+        <v>304342.9244720542</v>
       </c>
       <c r="O6" t="n">
-        <v>345136.7709787543</v>
+        <v>345102.0330533187</v>
       </c>
       <c r="P6" t="n">
-        <v>348160.068955979</v>
+        <v>348125.3310305433</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>853.7106645376841</v>
       </c>
       <c r="D3" t="n">
-        <v>862.9748695021897</v>
+        <v>862.9748695021905</v>
       </c>
       <c r="E3" t="n">
         <v>1212.170267494556</v>
@@ -26793,19 +26793,19 @@
         <v>542.1149567261632</v>
       </c>
       <c r="D4" t="n">
-        <v>553.467752164167</v>
+        <v>553.4677521641681</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086482</v>
+        <v>981.3883278086479</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26963,16 +26963,16 @@
         <v>305.2407236247797</v>
       </c>
       <c r="D3" t="n">
-        <v>9.264204964505552</v>
+        <v>9.264204964506348</v>
       </c>
       <c r="E3" t="n">
-        <v>349.1953979923665</v>
+        <v>349.1953979923657</v>
       </c>
       <c r="F3" t="n">
         <v>145.8707812218297</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288148</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26981,10 +26981,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27015,16 +27015,16 @@
         <v>354.5893695598434</v>
       </c>
       <c r="D4" t="n">
-        <v>11.3527954380038</v>
+        <v>11.35279543800494</v>
       </c>
       <c r="E4" t="n">
-        <v>427.9205756444812</v>
+        <v>427.9205756444798</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173583</v>
+        <v>178.7569625173591</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364211</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
         <v>354.5893695598434</v>
       </c>
       <c r="L4" t="n">
-        <v>11.35279543800402</v>
+        <v>11.35279543800494</v>
       </c>
       <c r="M4" t="n">
-        <v>427.9205756444812</v>
+        <v>427.9205756444798</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173583</v>
+        <v>178.7569625173591</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364211</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27261,16 +27261,16 @@
         <v>354.5893695598434</v>
       </c>
       <c r="L4" t="n">
-        <v>11.3527954380038</v>
+        <v>11.35279543800494</v>
       </c>
       <c r="M4" t="n">
-        <v>427.9205756444812</v>
+        <v>427.9205756444798</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173583</v>
+        <v>178.7569625173591</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364211</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27391,10 +27391,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>331.8830608123387</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399025</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666381</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988697</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871052</v>
+        <v>63.64367339871053</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038151</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>212.2895064754619</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,25 +27458,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>7.535961812221245</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.9045589040915</v>
       </c>
       <c r="J3" t="n">
         <v>15.37922103265842</v>
@@ -27506,22 +27506,22 @@
         <v>72.43289562846321</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>7.884010625681428</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377111</v>
       </c>
       <c r="V3" t="n">
-        <v>152.6041742839726</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715767</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27561,7 +27561,7 @@
         <v>57.06999962825419</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.10430989402855</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,19 +27576,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709389</v>
       </c>
       <c r="Q4" t="n">
         <v>68.68604055159727</v>
       </c>
       <c r="R4" t="n">
-        <v>112.8183423173785</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>171.5037272356658</v>
       </c>
       <c r="U4" t="n">
         <v>286.2650814934503</v>
@@ -27619,19 +27619,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>78.16360657708299</v>
@@ -27670,16 +27670,16 @@
         <v>208.0722578696039</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0710926941158</v>
+        <v>51.72187150112674</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>332.860743355892</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27692,10 +27692,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27704,16 +27704,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>110.5911125248602</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H6" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,10 +27743,10 @@
         <v>31.66886087721431</v>
       </c>
       <c r="S6" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>36.92728308757728</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,13 +27789,13 @@
         <v>166.4515011109318</v>
       </c>
       <c r="H7" t="n">
-        <v>33.00015710409926</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I7" t="n">
         <v>109.1541654470835</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R7" t="n">
         <v>108.0728512656386</v>
@@ -27825,7 +27825,7 @@
         <v>197.1876907596159</v>
       </c>
       <c r="T7" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2350578157167</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>35.73986807341274</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>327.9825175018008</v>
       </c>
       <c r="H8" t="n">
-        <v>273.3893082497829</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>129.9646330484316</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0681132513132</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27929,13 +27929,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27944,13 +27944,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>11.7331254590799</v>
+        <v>135.4873070665456</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>35.61339202271513</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27995,7 +27995,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>154.6106755843219</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28017,22 +28017,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>10.6044277129981</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4347951675532</v>
       </c>
       <c r="H10" t="n">
         <v>148.3912803373881</v>
       </c>
       <c r="I10" t="n">
-        <v>108.6517721680248</v>
+        <v>108.6517721680247</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>16.97319914237096</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>21.1957963346151</v>
       </c>
       <c r="R10" t="n">
-        <v>107.321691302451</v>
+        <v>107.3216913024509</v>
       </c>
       <c r="S10" t="n">
         <v>196.8965517281903</v>
       </c>
       <c r="T10" t="n">
-        <v>221.2964387944122</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2341465824415</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>21.96506352996016</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-3.395434237489591e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>2.799680487441947e-12</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29013,7 +29013,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>3.880510727564494e-12</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29703,7 +29703,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30648,7 +30648,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30706,7 +30706,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.469245706541463</v>
+        <v>3.469245706541467</v>
       </c>
       <c r="H8" t="n">
-        <v>35.52941259211777</v>
+        <v>35.5294125921178</v>
       </c>
       <c r="I8" t="n">
-        <v>133.7480951014399</v>
+        <v>133.74809510144</v>
       </c>
       <c r="J8" t="n">
-        <v>294.4478927855738</v>
+        <v>294.4478927855741</v>
       </c>
       <c r="K8" t="n">
-        <v>441.301063543474</v>
+        <v>441.3010635434744</v>
       </c>
       <c r="L8" t="n">
-        <v>547.4729918350424</v>
+        <v>547.472991835043</v>
       </c>
       <c r="M8" t="n">
-        <v>609.1691901687492</v>
+        <v>609.1691901687498</v>
       </c>
       <c r="N8" t="n">
-        <v>619.0261845324602</v>
+        <v>619.0261845324608</v>
       </c>
       <c r="O8" t="n">
-        <v>584.5288725380384</v>
+        <v>584.528872538039</v>
       </c>
       <c r="P8" t="n">
-        <v>498.881869157796</v>
+        <v>498.8818691577965</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.6395072922797</v>
+        <v>374.6395072922801</v>
       </c>
       <c r="R8" t="n">
-        <v>217.9250056135354</v>
+        <v>217.9250056135356</v>
       </c>
       <c r="S8" t="n">
-        <v>79.05543653781368</v>
+        <v>79.05543653781375</v>
       </c>
       <c r="T8" t="n">
-        <v>15.18662308038526</v>
+        <v>15.18662308038528</v>
       </c>
       <c r="U8" t="n">
-        <v>0.277539656523317</v>
+        <v>0.2775396565233172</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.856210096665087</v>
+        <v>1.856210096665089</v>
       </c>
       <c r="H9" t="n">
-        <v>17.92708172305493</v>
+        <v>17.92708172305494</v>
       </c>
       <c r="I9" t="n">
-        <v>63.90898797728481</v>
+        <v>63.90898797728487</v>
       </c>
       <c r="J9" t="n">
-        <v>175.3711477730818</v>
+        <v>175.371147773082</v>
       </c>
       <c r="K9" t="n">
-        <v>299.7372242496426</v>
+        <v>299.7372242496429</v>
       </c>
       <c r="L9" t="n">
-        <v>403.033687874584</v>
+        <v>403.0336878745844</v>
       </c>
       <c r="M9" t="n">
-        <v>470.3213038786933</v>
+        <v>470.3213038786938</v>
       </c>
       <c r="N9" t="n">
-        <v>482.7693093076448</v>
+        <v>482.7693093076452</v>
       </c>
       <c r="O9" t="n">
-        <v>441.6396013762762</v>
+        <v>441.6396013762767</v>
       </c>
       <c r="P9" t="n">
-        <v>354.4547157394937</v>
+        <v>354.4547157394941</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.9435905848277</v>
+        <v>236.9435905848279</v>
       </c>
       <c r="R9" t="n">
-        <v>115.2478514403113</v>
+        <v>115.2478514403115</v>
       </c>
       <c r="S9" t="n">
-        <v>34.47828841831859</v>
+        <v>34.47828841831863</v>
       </c>
       <c r="T9" t="n">
-        <v>7.481829293136906</v>
+        <v>7.481829293136913</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1221190853069137</v>
+        <v>0.1221190853069138</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.556184190905588</v>
+        <v>1.556184190905589</v>
       </c>
       <c r="H10" t="n">
-        <v>13.83589217005151</v>
+        <v>13.83589217005152</v>
       </c>
       <c r="I10" t="n">
-        <v>46.79870275923351</v>
+        <v>46.79870275923355</v>
       </c>
       <c r="J10" t="n">
-        <v>110.0222222970251</v>
+        <v>110.0222222970252</v>
       </c>
       <c r="K10" t="n">
-        <v>180.8003087252128</v>
+        <v>180.800308725213</v>
       </c>
       <c r="L10" t="n">
-        <v>231.3621478006363</v>
+        <v>231.3621478006364</v>
       </c>
       <c r="M10" t="n">
-        <v>243.938945488955</v>
+        <v>243.9389454889552</v>
       </c>
       <c r="N10" t="n">
-        <v>238.1386225955798</v>
+        <v>238.13862259558</v>
       </c>
       <c r="O10" t="n">
-        <v>219.9595618200008</v>
+        <v>219.959561820001</v>
       </c>
       <c r="P10" t="n">
-        <v>188.2134043255267</v>
+        <v>188.2134043255268</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.3092052948306</v>
+        <v>130.3092052948307</v>
       </c>
       <c r="R10" t="n">
-        <v>69.9717000747185</v>
+        <v>69.97170007471857</v>
       </c>
       <c r="S10" t="n">
-        <v>27.12004630878192</v>
+        <v>27.12004630878194</v>
       </c>
       <c r="T10" t="n">
-        <v>6.649150633869328</v>
+        <v>6.649150633869334</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0848827740493958</v>
+        <v>0.08488277404939587</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31847,10 +31847,10 @@
         <v>566.1178216256416</v>
       </c>
       <c r="M12" t="n">
-        <v>660.632795784533</v>
+        <v>219.8517740430752</v>
       </c>
       <c r="N12" t="n">
-        <v>253.5391629626221</v>
+        <v>678.117780114714</v>
       </c>
       <c r="O12" t="n">
         <v>620.345287743181</v>
@@ -31862,7 +31862,7 @@
         <v>332.8207874071846</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533297</v>
       </c>
       <c r="S12" t="n">
         <v>48.42963285697586</v>
@@ -32072,7 +32072,7 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
         <v>275.9770021735818</v>
@@ -32084,22 +32084,22 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>596.068849638979</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>391.6330708361143</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
         <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S15" t="n">
         <v>54.25758340862161</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,16 +32540,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>152.5685698206127</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
@@ -32558,31 +32558,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>171.4104471179106</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32792,34 +32792,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>137.7376326175082</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>169.9530009943068</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753698</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33260,13 +33260,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>548.8125296967492</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,16 +33500,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>530.5785304507792</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,16 +33734,16 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>514.8598010172138</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33755,10 +33755,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,28 +33974,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>316.0872899694776</v>
+        <v>638.9422653403558</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,22 +34442,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.4019882588875</v>
+        <v>113.4019882588878</v>
       </c>
       <c r="K8" t="n">
-        <v>221.2112124984935</v>
+        <v>221.2112124984939</v>
       </c>
       <c r="L8" t="n">
-        <v>311.7065768650552</v>
+        <v>311.7065768650558</v>
       </c>
       <c r="M8" t="n">
-        <v>378.8229569414765</v>
+        <v>378.8229569414771</v>
       </c>
       <c r="N8" t="n">
-        <v>389.6131209358693</v>
+        <v>389.6131209358699</v>
       </c>
       <c r="O8" t="n">
-        <v>354.4306611163516</v>
+        <v>354.4306611163522</v>
       </c>
       <c r="P8" t="n">
-        <v>267.6488734025265</v>
+        <v>267.6488734025269</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.3338174178302</v>
+        <v>152.3338174178306</v>
       </c>
       <c r="R8" t="n">
-        <v>2.33946779940328</v>
+        <v>2.339467799403479</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.53352110641512</v>
+        <v>48.53352110641526</v>
       </c>
       <c r="K9" t="n">
-        <v>161.8957852752836</v>
+        <v>161.8957852752839</v>
       </c>
       <c r="L9" t="n">
-        <v>264.4793080947098</v>
+        <v>264.4793080947102</v>
       </c>
       <c r="M9" t="n">
-        <v>328.187269956675</v>
+        <v>328.1872699566754</v>
       </c>
       <c r="N9" t="n">
-        <v>351.4275972243115</v>
+        <v>351.427597224312</v>
       </c>
       <c r="O9" t="n">
-        <v>299.0433569318318</v>
+        <v>299.0433569318322</v>
       </c>
       <c r="P9" t="n">
-        <v>220.4803083251635</v>
+        <v>220.4803083251638</v>
       </c>
       <c r="Q9" t="n">
-        <v>96.96181649880614</v>
+        <v>96.96181649880634</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>51.78705055467742</v>
+        <v>51.78705055467759</v>
       </c>
       <c r="L10" t="n">
-        <v>96.47747151939797</v>
+        <v>96.47747151939816</v>
       </c>
       <c r="M10" t="n">
-        <v>105.0131615413499</v>
+        <v>105.0131615413501</v>
       </c>
       <c r="N10" t="n">
-        <v>110.4530781303466</v>
+        <v>110.4530781303468</v>
       </c>
       <c r="O10" t="n">
-        <v>81.50302336815801</v>
+        <v>81.50302336815821</v>
       </c>
       <c r="P10" t="n">
-        <v>50.48540027637904</v>
+        <v>50.48540027637921</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35495,10 +35495,10 @@
         <v>427.5634418457674</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625146</v>
+        <v>77.71774012105686</v>
       </c>
       <c r="N12" t="n">
-        <v>122.1974508792888</v>
+        <v>546.7760680313808</v>
       </c>
       <c r="O12" t="n">
         <v>477.7490432987365</v>
@@ -35510,7 +35510,7 @@
         <v>192.8390133211631</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.2024045893657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
         <v>149.1393755069151</v>
@@ -35732,22 +35732,22 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>453.9348157169607</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>260.291358752781</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
         <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>25.73094315394598</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>25.73094315394662</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,22 +36440,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>6.39592053417488</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>35.9785935799765</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36908,13 +36908,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>414.838122282419</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295337</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36999,7 +36999,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899083</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060454</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37403,10 +37403,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>173.4910455250332</v>
+        <v>496.3460208959114</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37944,7 +37944,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001044</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
@@ -38090,22 +38090,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
